--- a/doc/04_外部設計書_トロフィー.xlsx
+++ b/doc/04_外部設計書_トロフィー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70848329-F1DB-4498-B179-C0D91A9EC5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FEBC30-1E48-4B8B-9D9E-24564D806398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="555" windowWidth="15645" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>DBカラム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>….............360</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -611,27 +607,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,9 +640,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +657,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,16 +704,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -732,8 +728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933574" y="1362075"/>
-          <a:ext cx="5343526" cy="5086350"/>
+          <a:off x="640080" y="1369695"/>
+          <a:ext cx="8831580" cy="4832985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,16 +763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -790,9 +786,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1962150" y="1704975"/>
-          <a:ext cx="5257800" cy="19050"/>
+        <a:xfrm flipV="1">
+          <a:off x="624840" y="1805940"/>
+          <a:ext cx="8839200" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -820,25 +816,162 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2578398" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD9F537-6E2F-EFBE-2E6D-16D487AFAAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="1470660"/>
+          <a:ext cx="2578398" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヘッダー部分はトップページのものと同じ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C6E74C-1A46-4787-2A87-BC2A586093BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="1943100"/>
+          <a:ext cx="3558540" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>実績一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26124</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5046</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>43009</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88606</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="グラフィックス 4" descr="メダル 枠線">
+        <xdr:cNvPr id="9" name="グラフィックス 8" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5508E52-44F3-BA4F-225A-1AB642EE60C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862FD444-2776-417E-AA6E-B989E795ABA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,8 +996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3340824" y="2100546"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="2346960" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,23 +1008,235 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="グラフィックス 39" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA52F45-F6DF-4F92-9852-20A7A6FD2135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="グラフィックス 40" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1F97B0-CCDF-4E0F-81EA-BE6056374F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="グラフィックス 42" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC22F93-DCD7-4CCE-9190-DFDB45E571B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>137163</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14571</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="グラフィックス 59" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA146208-7349-403F-938D-F929F6290AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5097780" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>154048</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>98131</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="グラフィックス 10" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="79" name="グラフィックス 78" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7277E2C8-290C-D47E-EA0C-0975942F9865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC222D8-1DAA-4050-BA42-BFAEA25F927C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,8 +1261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6214113" y="2110071"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="5798820" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,23 +1273,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>250141</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24096</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>267026</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107656</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="グラフィックス 11" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="80" name="グラフィックス 79" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC42968E-47D8-8F94-E5EE-DC886F3E8F4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A62FB4-2993-4383-885A-38FA76BD472A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,8 +1314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10470466" y="2119596"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="6492240" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,23 +1326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>254536</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24096</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>271421</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107656</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="グラフィックス 12" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="81" name="グラフィックス 80" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF2FAE6-BF8A-81AF-BCDC-4F48256FB12F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC69B3A7-C230-4024-B656-A726DB79F2E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,8 +1367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9646186" y="2119596"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="7185660" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1034,23 +1379,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>55246</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24096</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>72131</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107656</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="グラフィックス 13" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="82" name="グラフィックス 81" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEF4D77-4CD7-98C1-D6B8-80A737A4D17C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF12279-8B45-41A0-BDB3-54BEA4831407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1410,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1075,8 +1420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12209146" y="2119596"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="7879080" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,23 +1432,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>249032</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>265917</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83560</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="グラフィックス 14" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="83" name="グラフィックス 82" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722E4176-79E5-3536-A527-FB588475CA09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08E23B3-0F55-42E9-B9A9-8337CB1A0698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,7 +1463,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1128,8 +1473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11298032" y="2095500"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="8549640" y="3101340"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,1290 +1485,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>249032</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182330</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>265917</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75390</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="グラフィックス 15" descr="メダル 単色塗りつぶし">
+        <xdr:cNvPr id="94" name="グラフィックス 93" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98738B60-892D-CEF8-D4D9-ECDE01EA6BD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11298032" y="3611330"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>58532</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>75417</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="グラフィックス 16" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43058E0A-0833-8165-3FEF-F14C9DB3DB32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12212432" y="3611330"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BD0F2A-6B16-E5D3-1C28-E0917600C1C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="2072301"/>
-          <a:ext cx="1504950" cy="884858"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>ログイン日数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
-              <a:latin typeface="Amasis MT Pro Black" panose="020B0604020202020204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Aldhabi" panose="020B0604020202020204" pitchFamily="2" charset="-78"/>
-            </a:rPr>
-            <a:t>121</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
-            <a:latin typeface="Amasis MT Pro Black" panose="020B0604020202020204" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Aldhabi" panose="020B0604020202020204" pitchFamily="2" charset="-78"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>92799</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>109684</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>67761</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="グラフィックス 18" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F368CD7A-A5FA-9926-4230-A930E0273C07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3959949" y="5508701"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>163067</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>140410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>179952</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>33470</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="グラフィックス 19" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5EC961-9839-127C-B55B-AAA912233440}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2925317" y="5474410"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113090</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>111835</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>4895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="グラフィックス 20" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B8EBF7-EC97-8553-0DAB-5BE1897776CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2046665" y="5445835"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>74990</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>29801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="グラフィックス 21" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084A0B9B-BB21-6CEC-3747-F09AFA3AD665}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2008565" y="4220801"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167274</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>29930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>184159</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113490</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="グラフィックス 22" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C727E7-E253-872D-B8DD-081107B3320B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2929524" y="4220930"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>154783</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>153755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171668</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="グラフィックス 23" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBA81B9-915E-B209-7F70-E9C0005BE0F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4021933" y="4154255"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>72025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>88910</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>103965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="グラフィックス 24" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECDC2EE-40F7-1484-C502-4641D7882186}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5044075" y="4211405"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54016</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>186809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>70901</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>79869</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="グラフィックス 25" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F83530-1888-82E4-291C-B068E502F33F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6130966" y="4187309"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>254549</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>271434</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="グラフィックス 27" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51886430-A48B-F6D8-88CA-79BFCA09C482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9646199" y="3611330"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>250141</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>267026</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="グラフィックス 28" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF95DF4A-E282-9591-4EA3-6F0927D24C03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10470466" y="3611330"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>59295</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>159460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>52520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="グラフィックス 29" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887CF31E-FF65-BD24-B15A-7C29EE1AE427}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5031345" y="5493460"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>107720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>124605</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19028</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="グラフィックス 30" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0140C0F-6F7F-7205-9294-A16B95635C8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12261620" y="5078968"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>245746</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>262631</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19028</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="グラフィックス 31" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B81106F-05E2-EDE2-2CBD-31B3A28D3960}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11294746" y="5078968"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>250141</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>267026</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19028</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="グラフィックス 32" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C8FF1E-AAE0-7F66-C7E0-8D5840DFD615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10470466" y="5078968"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>213577</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>150064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>230462</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="グラフィックス 33" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDF46E8-865B-1F41-D062-F06B1375A878}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9605227" y="5103064"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>101641</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>102439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>118526</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185999</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="グラフィックス 35" descr="メダル 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC27E131-902A-794E-AF08-146928C61482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6178591" y="5436439"/>
-          <a:ext cx="845560" cy="845560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177903</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>43683</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>41370</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="テキスト ボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60D3D34-8A2C-46F2-7C18-78733681488E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3492603" y="3091683"/>
-          <a:ext cx="6492867" cy="375417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>1            7           30        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>50         80 ...360    </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>235674</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>252559</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>98131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="グラフィックス 38" descr="メダル 枠線">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89671D12-AF9B-894D-31C4-D4953F6BF097}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8D84C7-3D61-440F-8F10-8F151A7D3B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,8 +1526,114 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4102824" y="2110071"/>
-          <a:ext cx="845560" cy="845560"/>
+          <a:off x="2346960" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="グラフィックス 94" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280E22C9-A26A-44AE-8C74-6077EBD54A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="グラフィックス 95" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A29ADC-B3D8-48D2-AB0A-1E67463EC08B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2461,22 +1645,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>81592</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24425</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>98550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>108058</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
+        <xdr:cNvPr id="97" name="グラフィックス 96" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10EEFCA-1903-FBFD-45DC-02534D622360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81581E75-DE60-44FA-B35E-6005C7FB2FF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,15 +1669,24 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4777417" y="2119925"/>
-          <a:ext cx="845633" cy="845633"/>
+          <a:off x="4427220" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2504,23 +1697,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>214153</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30270</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>231111</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>113903</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72">
+        <xdr:cNvPr id="98" name="グラフィックス 97" descr="トロフィー 単色塗りつぶし">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35285950-DDE5-A9B7-A841-95A70E555882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC6B19C-F821-43CF-B90A-39F152E097D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,15 +1722,289 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5462428" y="2125770"/>
-          <a:ext cx="845633" cy="845633"/>
+          <a:off x="5097780" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="グラフィックス 98" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C188B9-4496-41E5-9C61-83F3BF53B0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="グラフィックス 99" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA64209F-6399-4123-8617-14D7652339CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="グラフィックス 100" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFA8EEE-CBBC-4AF8-A55C-05FFBEF65831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7185660" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="グラフィックス 101" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18417FC9-7EF2-4299-AF9F-E480B47DE992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7879080" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="グラフィックス 102" descr="トロフィー 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E99267E-2F54-4408-B4B7-BAABD9F74F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8549640" y="4693920"/>
+          <a:ext cx="579120" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,23 +2015,68 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>81131</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94283</xdr:rowOff>
+      <xdr:rowOff>183328</xdr:rowOff>
     </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DB069A-02A9-ABD8-79F3-AAB46C21C272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="674595" y="4317402"/>
+          <a:ext cx="8693971" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6667500" cy="320409"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="テキスト ボックス 43">
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB7DD1E-28B9-BC37-D0A0-7BBF2A941FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F365346E-839E-CAF0-9D5F-3AB62A95A2A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,137 +2084,890 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="3400425"/>
-          <a:ext cx="1457325" cy="884858"/>
+          <a:off x="2484120" y="3733800"/>
+          <a:ext cx="6667500" cy="320409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>タスク達成数</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>1        </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="3200">
-              <a:latin typeface="Amasis MT Pro Black" panose="02040A04050005020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Aldhabi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
             </a:rPr>
-            <a:t>201</a:t>
+            <a:t> 7         30        60        90       180       365      555       777     1000</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
-            <a:latin typeface="Amasis MT Pro Black" panose="02040A04050005020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Aldhabi" panose="01000000000000000000" pitchFamily="2" charset="-78"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0">
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6667500" cy="320409"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E23C68-0BF3-47D0-A921-FB8097870702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="5372100"/>
+          <a:ext cx="6667500" cy="320409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>1        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> 7         30        60        90       180       365      555       777     1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0">
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>30031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5097780" cy="1110279"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEF78AE-E706-144E-7146-1069B87A2D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10070502" y="1695674"/>
+          <a:ext cx="5097780" cy="1110279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>数字は一案です。どうでもいい部分ですが、コンプリートするのは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>かなり大変なハードルにしていいと思います。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>また、今回ログインもタスクも同じ数字の刻みを採用しているのは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>単にコピペしたからです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="吹き出し: 角を丸めた四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02442AE-7EF5-0C9A-F419-704599B00FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10004611" y="1604683"/>
+          <a:ext cx="5208495" cy="1122382"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69135"/>
+            <a:gd name="adj2" fmla="val 135885"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>231738</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="吹き出し: 角を丸めた四角形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD66316B-84BA-4D22-9AF3-87BB3A5780F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021197" y="4617719"/>
+          <a:ext cx="4761603" cy="1287332"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67792"/>
+            <a:gd name="adj2" fmla="val -25263"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>117437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1793</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4619726" cy="1203960"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6F972B-CFC9-46DF-A6AC-80CF0411596E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10157908" y="4708264"/>
+          <a:ext cx="4619726" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>トロフィーでもメダルでもいいですが、宙に浮いているならメダルの方が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>自然な気はしています</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>どうでもいい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>どちらの場合も、たくさん集めたくなるような、並んでいて見栄えのいい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ものにしたいし、未達成のものは未達成とわかりやすくしたいです</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>灰色だと銀みたいに見えなくもない？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251010</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1506071" cy="1156447"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75D9D10-6D78-2FE4-D2FD-997A3E451871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="753034" y="3021105"/>
+          <a:ext cx="1506071" cy="1156447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>通算ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>１０１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1506071" cy="1156447"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="テキスト ボックス 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12F50EF-59A4-457D-87A0-FD08E5CC26AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="797859" y="4634753"/>
+          <a:ext cx="1506071" cy="1156447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>完了タスク</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>２２８</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="吹き出し: 角を丸めた四角形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EFD66C-626E-4AD4-9940-7AA14987A8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10560423" y="3173506"/>
+          <a:ext cx="5531224" cy="1389529"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71478"/>
+            <a:gd name="adj2" fmla="val 30956"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5253318" cy="1335741"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9979C817-C054-4C10-A629-2F778FE14F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10766612" y="3343835"/>
+          <a:ext cx="5253318" cy="1335741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>横列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ごとに分かれていることが分かりやすいようにするべきかなと。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" i="1" u="sng">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>デザイン自体は担当者がきれいに作ってください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1" u="sng">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" i="1" u="sng">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>あくまで配置のイメージです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1" u="sng">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" i="1" u="sng">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>数字が赤色になっているのとかも超適当です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1" u="sng">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3029,156 +3294,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4160,31 +4425,21 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9">
-        <v>7</v>
-      </c>
+      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9">
-        <v>30</v>
-      </c>
+      <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="9">
-        <v>50</v>
-      </c>
+      <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>

--- a/doc/04_外部設計書_トロフィー.xlsx
+++ b/doc/04_外部設計書_トロフィー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FEBC30-1E48-4B8B-9D9E-24564D806398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0985AAF-C728-4974-A7DB-F2ED9CD31ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2015,16 +2015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>172571</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>175708</xdr:rowOff>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>81131</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>183328</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2039,8 +2039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="674595" y="4317402"/>
-          <a:ext cx="8693971" cy="7620"/>
+          <a:off x="1084729" y="4312024"/>
+          <a:ext cx="7987553" cy="8964"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2968,6 +2968,163 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107573</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5097780" cy="959225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74F076-A8A9-4C68-A8C1-4489280DA287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10255624" y="484091"/>
+          <a:ext cx="5097780" cy="959225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>納期の都合とはいえ、現状</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>項目しかないのに一覧と言っていいか。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>どうでもいいですが違和感あれば表現変えましょう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="吹き出し: 角を丸めた四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEBD243-46E8-4C08-9B1F-EF6C4E773719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10228729" y="215152"/>
+          <a:ext cx="5208495" cy="1122382"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -132646"/>
+            <a:gd name="adj2" fmla="val 123904"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3294,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ7" sqref="BJ7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/04_外部設計書_トロフィー.xlsx
+++ b/doc/04_外部設計書_トロフィー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0985AAF-C728-4974-A7DB-F2ED9CD31ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D19ED-26D0-4994-8D3B-A4F0305DFC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2972,10 +2972,10 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>215153</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107573</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5097780" cy="959225"/>
+    <xdr:ext cx="5943600" cy="1093697"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
@@ -2989,8 +2989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10255624" y="484091"/>
-          <a:ext cx="5097780" cy="959225"/>
+          <a:off x="10255624" y="251009"/>
+          <a:ext cx="5943600" cy="1093697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,6 +3056,31 @@
             <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>このページでも、固定でいいので褒める？ひとことくらいあってもいいかも？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3068,8 +3093,8 @@
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19722</xdr:rowOff>
     </xdr:to>
@@ -3087,11 +3112,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10228729" y="215152"/>
-          <a:ext cx="5208495" cy="1122382"/>
+          <a:ext cx="6051177" cy="1122382"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -132646"/>
+            <a:gd name="adj1" fmla="val -121090"/>
             <a:gd name="adj2" fmla="val 123904"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
@@ -3451,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV3" sqref="AV3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
